--- a/retailer/data/inventory.xlsx
+++ b/retailer/data/inventory.xlsx
@@ -14,21 +14,405 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="133">
   <si>
     <t>product_id</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>current_stock</t>
   </si>
   <si>
+    <t>min_stock</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
     <t>last_updated</t>
   </si>
   <si>
-    <t>min_stock</t>
-  </si>
-  <si>
-    <t>max_stock</t>
+    <t>PROD-001</t>
+  </si>
+  <si>
+    <t>PROD-002</t>
+  </si>
+  <si>
+    <t>PROD-003</t>
+  </si>
+  <si>
+    <t>PROD-004</t>
+  </si>
+  <si>
+    <t>PROD-005</t>
+  </si>
+  <si>
+    <t>PROD-006</t>
+  </si>
+  <si>
+    <t>PROD-007</t>
+  </si>
+  <si>
+    <t>PROD-008</t>
+  </si>
+  <si>
+    <t>PROD-009</t>
+  </si>
+  <si>
+    <t>PROD-010</t>
+  </si>
+  <si>
+    <t>PROD-011</t>
+  </si>
+  <si>
+    <t>PROD-012</t>
+  </si>
+  <si>
+    <t>PROD-013</t>
+  </si>
+  <si>
+    <t>PROD-014</t>
+  </si>
+  <si>
+    <t>PROD-015</t>
+  </si>
+  <si>
+    <t>PROD-016</t>
+  </si>
+  <si>
+    <t>PROD-017</t>
+  </si>
+  <si>
+    <t>PROD-018</t>
+  </si>
+  <si>
+    <t>PROD-019</t>
+  </si>
+  <si>
+    <t>PROD-020</t>
+  </si>
+  <si>
+    <t>PROD-021</t>
+  </si>
+  <si>
+    <t>PROD-022</t>
+  </si>
+  <si>
+    <t>PROD-023</t>
+  </si>
+  <si>
+    <t>PROD-024</t>
+  </si>
+  <si>
+    <t>PROD-025</t>
+  </si>
+  <si>
+    <t>PROD-026</t>
+  </si>
+  <si>
+    <t>PROD-027</t>
+  </si>
+  <si>
+    <t>PROD-028</t>
+  </si>
+  <si>
+    <t>PROD-029</t>
+  </si>
+  <si>
+    <t>PROD-030</t>
+  </si>
+  <si>
+    <t>PROD-031</t>
+  </si>
+  <si>
+    <t>PROD-032</t>
+  </si>
+  <si>
+    <t>PROD-033</t>
+  </si>
+  <si>
+    <t>PROD-034</t>
+  </si>
+  <si>
+    <t>PROD-035</t>
+  </si>
+  <si>
+    <t>PROD-036</t>
+  </si>
+  <si>
+    <t>PROD-037</t>
+  </si>
+  <si>
+    <t>PROD-038</t>
+  </si>
+  <si>
+    <t>PROD-039</t>
+  </si>
+  <si>
+    <t>PROD-040</t>
+  </si>
+  <si>
+    <t>PROD-041</t>
+  </si>
+  <si>
+    <t>PROD-042</t>
+  </si>
+  <si>
+    <t>PROD-043</t>
+  </si>
+  <si>
+    <t>PROD-044</t>
+  </si>
+  <si>
+    <t>PROD-045</t>
+  </si>
+  <si>
+    <t>PROD-046</t>
+  </si>
+  <si>
+    <t>PROD-047</t>
+  </si>
+  <si>
+    <t>PROD-048</t>
+  </si>
+  <si>
+    <t>PROD-049</t>
+  </si>
+  <si>
+    <t>PROD-050</t>
+  </si>
+  <si>
+    <t>Product K1</t>
+  </si>
+  <si>
+    <t>Product D2</t>
+  </si>
+  <si>
+    <t>Product R3</t>
+  </si>
+  <si>
+    <t>Product L4</t>
+  </si>
+  <si>
+    <t>Product F5</t>
+  </si>
+  <si>
+    <t>Product V6</t>
+  </si>
+  <si>
+    <t>Product I7</t>
+  </si>
+  <si>
+    <t>Product E8</t>
+  </si>
+  <si>
+    <t>Product L9</t>
+  </si>
+  <si>
+    <t>Product G10</t>
+  </si>
+  <si>
+    <t>Product H11</t>
+  </si>
+  <si>
+    <t>Product K12</t>
+  </si>
+  <si>
+    <t>Product L13</t>
+  </si>
+  <si>
+    <t>Product U14</t>
+  </si>
+  <si>
+    <t>Product C15</t>
+  </si>
+  <si>
+    <t>Product W16</t>
+  </si>
+  <si>
+    <t>Product X17</t>
+  </si>
+  <si>
+    <t>Product G18</t>
+  </si>
+  <si>
+    <t>Product R19</t>
+  </si>
+  <si>
+    <t>Product M20</t>
+  </si>
+  <si>
+    <t>Product T21</t>
+  </si>
+  <si>
+    <t>Product Y22</t>
+  </si>
+  <si>
+    <t>Product C23</t>
+  </si>
+  <si>
+    <t>Product T24</t>
+  </si>
+  <si>
+    <t>Product M25</t>
+  </si>
+  <si>
+    <t>Product N26</t>
+  </si>
+  <si>
+    <t>Product S27</t>
+  </si>
+  <si>
+    <t>Product R28</t>
+  </si>
+  <si>
+    <t>Product V29</t>
+  </si>
+  <si>
+    <t>Product O30</t>
+  </si>
+  <si>
+    <t>Product R31</t>
+  </si>
+  <si>
+    <t>Product P32</t>
+  </si>
+  <si>
+    <t>Product U33</t>
+  </si>
+  <si>
+    <t>Product B34</t>
+  </si>
+  <si>
+    <t>Product P35</t>
+  </si>
+  <si>
+    <t>Product F36</t>
+  </si>
+  <si>
+    <t>Product Z37</t>
+  </si>
+  <si>
+    <t>Product Q38</t>
+  </si>
+  <si>
+    <t>Product G39</t>
+  </si>
+  <si>
+    <t>Product C40</t>
+  </si>
+  <si>
+    <t>Product P41</t>
+  </si>
+  <si>
+    <t>Product B42</t>
+  </si>
+  <si>
+    <t>Product H43</t>
+  </si>
+  <si>
+    <t>Product S44</t>
+  </si>
+  <si>
+    <t>Product S45</t>
+  </si>
+  <si>
+    <t>Product H46</t>
+  </si>
+  <si>
+    <t>Product X47</t>
+  </si>
+  <si>
+    <t>Product B48</t>
+  </si>
+  <si>
+    <t>Product H49</t>
+  </si>
+  <si>
+    <t>Product Q50</t>
+  </si>
+  <si>
+    <t>In Stock</t>
+  </si>
+  <si>
+    <t>Low Stock</t>
+  </si>
+  <si>
+    <t>Out of Stock</t>
+  </si>
+  <si>
+    <t>2025-06-18</t>
+  </si>
+  <si>
+    <t>2025-06-27</t>
+  </si>
+  <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
+    <t>2025-07-12</t>
+  </si>
+  <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-14</t>
+  </si>
+  <si>
+    <t>2025-06-28</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
+  </si>
+  <si>
+    <t>2025-06-19</t>
+  </si>
+  <si>
+    <t>2025-07-13</t>
+  </si>
+  <si>
+    <t>2025-07-02</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>2025-07-08</t>
+  </si>
+  <si>
+    <t>2025-06-17</t>
+  </si>
+  <si>
+    <t>2025-07-07</t>
+  </si>
+  <si>
+    <t>2025-07-06</t>
+  </si>
+  <si>
+    <t>2025-07-04</t>
+  </si>
+  <si>
+    <t>2025-07-01</t>
+  </si>
+  <si>
+    <t>2025-06-20</t>
+  </si>
+  <si>
+    <t>2025-06-22</t>
+  </si>
+  <si>
+    <t>2025-06-21</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-07-05</t>
   </si>
 </sst>
 </file>
@@ -386,13 +770,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,6 +791,1009 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13">
+        <v>46</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14">
+        <v>49</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17">
+        <v>35</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24">
+        <v>47</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29">
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32">
+        <v>23</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33">
+        <v>46</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34">
+        <v>39</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35">
+        <v>33</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39">
+        <v>34</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41">
+        <v>27</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42">
+        <v>28</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44">
+        <v>14</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45">
+        <v>43</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46">
+        <v>23</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47">
+        <v>42</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48">
+        <v>14</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49">
+        <v>30</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51">
+        <v>20</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
